--- a/CashFlow/NVCR_cashflow.xlsx
+++ b/CashFlow/NVCR_cashflow.xlsx
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>77704000.0</v>
+        <v>23918000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>102000000.0</v>
+        <v>-2935000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>75673000.0</v>
+        <v>-1773000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>50740000.0</v>
+        <v>-651000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>23424000.0</v>
+        <v>1571000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-1159000.0</v>
@@ -702,19 +702,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>25183000.0</v>
+        <v>188000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>25470000.0</v>
+        <v>175000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>44974000.0</v>
+        <v>158000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>45968000.0</v>
+        <v>126902000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>46671000.0</v>
+        <v>89010000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>48021000.0</v>
@@ -2457,10 +2457,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>35248000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>31798000.0</v>
